--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pauli\Desktop\4AHIF\SYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pauli\Desktop\4AHIF\project-proposal-ship4you\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F7F39-E7FD-4B12-B3F0-F55446E33D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D09E3C-EDD8-4A72-80B8-A3EB40C12DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,61 +437,61 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.571428571428569</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>40.102040816326529</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>36.673469387755098</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.244897959183668</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.306122448979586</c:v>
+                  <c:v>33.734693877551017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.367346938775505</c:v>
+                  <c:v>30.795918367346935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.428571428571423</c:v>
+                  <c:v>27.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.489795918367342</c:v>
+                  <c:v>24.918367346938773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.489795918367342</c:v>
+                  <c:v>24.918367346938773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.489795918367342</c:v>
+                  <c:v>24.918367346938773</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.489795918367342</c:v>
+                  <c:v>24.918367346938773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.489795918367342</c:v>
+                  <c:v>24.918367346938773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.551020408163261</c:v>
+                  <c:v>21.979591836734691</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.612244897959179</c:v>
+                  <c:v>19.04081632653061</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.673469387755098</c:v>
+                  <c:v>16.102040816326529</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.7346938775510168</c:v>
+                  <c:v>13.163265306122447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7959183673469354</c:v>
+                  <c:v>10.224489795918366</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8571428571428541</c:v>
+                  <c:v>7.2857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91836734693877276</c:v>
+                  <c:v>4.3469387755102034</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.408163265306122</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,8 +1312,12 @@
         <v>28</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -1332,7 +1336,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
-        <v>41.571428571428569</v>
+        <v>45</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
@@ -1352,7 +1356,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="5"/>
-        <v>41.571428571428569</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
@@ -1368,7 +1372,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
-        <v>36.673469387755098</v>
+        <v>40.102040816326529</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
@@ -1388,23 +1392,23 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="5"/>
+        <v>40.102040816326529</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
         <v>36.673469387755098</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>33.244897959183668</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
@@ -1424,7 +1428,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="5"/>
-        <v>33.244897959183668</v>
+        <v>36.673469387755098</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
@@ -1440,7 +1444,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="2"/>
-        <v>30.306122448979586</v>
+        <v>33.734693877551017</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
@@ -1460,7 +1464,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="5"/>
-        <v>30.306122448979586</v>
+        <v>33.734693877551017</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
@@ -1476,7 +1480,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="2"/>
-        <v>27.367346938775505</v>
+        <v>30.795918367346935</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
@@ -1496,7 +1500,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="5"/>
-        <v>27.367346938775505</v>
+        <v>30.795918367346935</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="6"/>
@@ -1512,7 +1516,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="2"/>
-        <v>24.428571428571423</v>
+        <v>27.857142857142854</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
@@ -1532,7 +1536,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="5"/>
-        <v>24.428571428571423</v>
+        <v>27.857142857142854</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="6"/>
@@ -1548,7 +1552,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
@@ -1568,7 +1572,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="5"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="6"/>
@@ -1584,7 +1588,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
@@ -1604,7 +1608,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="5"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
@@ -1620,7 +1624,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="2"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
@@ -1640,7 +1644,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
@@ -1656,7 +1660,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="2"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
@@ -1676,7 +1680,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="5"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="2"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
@@ -1712,7 +1716,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="5"/>
-        <v>21.489795918367342</v>
+        <v>24.918367346938773</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
@@ -1728,7 +1732,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="2"/>
-        <v>18.551020408163261</v>
+        <v>21.979591836734691</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
@@ -1748,7 +1752,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>18.551020408163261</v>
+        <v>21.979591836734691</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
@@ -1764,7 +1768,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="2"/>
-        <v>15.612244897959179</v>
+        <v>19.04081632653061</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
@@ -1784,7 +1788,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>15.612244897959179</v>
+        <v>19.04081632653061</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
@@ -1800,7 +1804,7 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="2"/>
-        <v>12.673469387755098</v>
+        <v>16.102040816326529</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
@@ -1820,7 +1824,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>12.673469387755098</v>
+        <v>16.102040816326529</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
@@ -1836,7 +1840,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="2"/>
-        <v>9.7346938775510168</v>
+        <v>13.163265306122447</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="3"/>
@@ -1856,7 +1860,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>9.7346938775510168</v>
+        <v>13.163265306122447</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
@@ -1872,7 +1876,7 @@
       </c>
       <c r="J25" s="7">
         <f t="shared" si="2"/>
-        <v>6.7959183673469354</v>
+        <v>10.224489795918366</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="3"/>
@@ -1892,7 +1896,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="5"/>
-        <v>6.7959183673469354</v>
+        <v>10.224489795918366</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
@@ -1908,7 +1912,7 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="2"/>
-        <v>3.8571428571428541</v>
+        <v>7.2857142857142847</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="3"/>
@@ -1928,7 +1932,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7">
         <f t="shared" si="5"/>
-        <v>3.8571428571428541</v>
+        <v>7.2857142857142847</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="6"/>
@@ -1944,7 +1948,7 @@
       </c>
       <c r="J27" s="7">
         <f t="shared" si="2"/>
-        <v>0.91836734693877276</v>
+        <v>4.3469387755102034</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="3"/>
@@ -1964,7 +1968,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7">
         <f t="shared" si="5"/>
-        <v>0.91836734693877276</v>
+        <v>4.3469387755102034</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
@@ -1980,7 +1984,7 @@
       </c>
       <c r="J28" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="3"/>
@@ -2000,7 +2004,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
@@ -2860,11 +2864,11 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <f>AVERAGE(D7:D52)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" s="11">
         <f>AVERAGE(E7:E52)</f>
-        <v>32.666666666666664</v>
+        <v>24.5</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
